--- a/medicine/Autisme/Example_(chanteur)/Example_(chanteur).xlsx
+++ b/medicine/Autisme/Example_(chanteur)/Example_(chanteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elliot John Gleave plus connu sous le pseudonyme Example (prononcé en anglais : /ɪɡˈzæm.pəl, -ˈzɑːm-/[1],[2] ; né le 20 juin 1982) est un chanteur et rappeur britannique. Son nom de scène vient de ses initiales E.G, abréviation latine de exempli gratia qui signifie « par exemple ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elliot John Gleave plus connu sous le pseudonyme Example (prononcé en anglais : /ɪɡˈzæm.pəl, -ˈzɑːm-/, ; né le 20 juin 1982) est un chanteur et rappeur britannique. Son nom de scène vient de ses initiales E.G, abréviation latine de exempli gratia qui signifie « par exemple ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gleave nait le 20 juin 1982 et grandit à Fulham, un quartier de Londres. Il a une sœur plus jeune, qui se prénomme Elise.
 Ses  influences sont le rap, l'électro et la pop d'origine anglaise. Il se démarque en 2009 avec le morceau Watch the sun come up qui le place numéro 1 des charts en Angleterre.
@@ -544,10 +558,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est marié depuis le 18 mai 2013 à l'actrice, model et ancienne Miss Australie Erin McNaught (en). Ils s'étaient fiancés en novembre 2012 après un an de relation. Il est également le neveu du footballeur Tony Grealish. Le 21 décembre 2014, Erin Gleave donne naissance à leur premier enfant Evander Maxwell.
-Dans une interview en 2012, accordée au journal britannique The Guardian, il déclare avoir été diagnostiqué Syndrome d'Asperger et TDAH (trouble déficitaire de l’attention avec hyperactivité)[3].
+Dans une interview en 2012, accordée au journal britannique The Guardian, il déclare avoir été diagnostiqué Syndrome d'Asperger et TDAH (trouble déficitaire de l’attention avec hyperactivité).
 </t>
         </is>
       </c>
@@ -578,19 +594,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Albums
-2007 : What We Made
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 : What We Made
 2010 : Won't Go Quietly
 2011 : Playing In The Shadows
 2012 : The Evolution Of Man
 2014 : Live Life Living
-2018 : Bangers &amp; Ballads
-Mixtapes
-2006 : We Didn't Invent the Remix
+2018 : Bangers &amp; Ballads</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Example_(chanteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Example_(chanteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mixtapes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2006 : We Didn't Invent the Remix
 2008 : What We Almost Made
 2009 : The Credit Munch
-2010 : The Big Dog Blog Mix [avec Wire]
-Singles</t>
+2010 : The Big Dog Blog Mix [avec Wire]</t>
         </is>
       </c>
     </row>
